--- a/Result/Orbit/Service/SGP.xlsx
+++ b/Result/Orbit/Service/SGP.xlsx
@@ -463,7 +463,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>59.89965055509169</v>
+        <v>60.00674759218629</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>60.50606220347918</v>
+        <v>60.50590637711551</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>61.81918237142892</v>
+        <v>60.70431053694187</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>60.6931525566241</v>
+        <v>61.58236352938728</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>60.03225466326707</v>
+        <v>61.14640646194667</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>63.14080288183875</v>
+        <v>60.46782866646265</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>62.61728866032323</v>
+        <v>62.28337212859913</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>62.85623332857661</v>
+        <v>62.59352577151062</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>61.54086573102785</v>
+        <v>62.9022328163387</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>62.33491277718424</v>
+        <v>62.47245124480687</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>64.18261285275129</v>
+        <v>62.3851832755677</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>62.81721558182291</v>
+        <v>63.61281050042484</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>62.46169933655361</v>
+        <v>63.11311060502028</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>62.00753448369179</v>
+        <v>62.9723741818936</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>61.83283965051876</v>
+        <v>62.57881073837566</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>61.61832443780616</v>
+        <v>62.05975315060358</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>62.07853748641156</v>
+        <v>61.81593965923612</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>62.62999077115974</v>
+        <v>61.94014121882316</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>62.7222601305176</v>
+        <v>62.02699783655646</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>63.06928086699373</v>
+        <v>62.52548353238618</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>60.66451974372163</v>
+        <v>62.92982583876834</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>63.59363423451197</v>
+        <v>61.6407436200933</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>63.97695568024015</v>
+        <v>62.71612090943684</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>64.34872520763541</v>
+        <v>63.51941274875806</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>63.07257512870758</v>
+        <v>64.39382475736593</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>64.07318437592549</v>
+        <v>63.88739991321502</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>64.87685404905513</v>
+        <v>64.13156394635257</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -733,7 +733,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>66.04014850149031</v>
+        <v>64.72674875720932</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -743,7 +743,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>68.34796175535224</v>
+        <v>65.88660285631784</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -753,7 +753,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>68.00606952330871</v>
+        <v>67.73558450027429</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -763,7 +763,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>67.84351708253806</v>
+        <v>68.21590962792325</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -773,7 +773,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>69.02312362626182</v>
+        <v>68.54423490873609</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -783,7 +783,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>69.20862704581847</v>
+        <v>69.21564363728862</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -793,7 +793,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>70.76230615872412</v>
+        <v>69.77950250757473</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -803,7 +803,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>70.34532579316748</v>
+        <v>70.1996505451513</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -813,7 +813,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>69.950933310914</v>
+        <v>70.80633573166335</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -823,7 +823,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>70.66365925256602</v>
+        <v>70.6727856475533</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -874,50 +874,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>70.51703238606855</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>70.57381529958967</v>
+      </c>
+      <c r="C2" t="n">
+        <v>68.67757291316892</v>
+      </c>
+      <c r="D2" t="n">
+        <v>72.69202781539754</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>70.51703238606855</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>70.84011325212798</v>
+      </c>
+      <c r="C3" t="n">
+        <v>69.01728782818354</v>
+      </c>
+      <c r="D3" t="n">
+        <v>72.85382489757505</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>70.51703238606855</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>70.48990279430797</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67.96020181214507</v>
+      </c>
+      <c r="D4" t="n">
+        <v>73.08503944223044</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>70.51703238606855</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>70.78367997685156</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67.45951898190387</v>
+      </c>
+      <c r="D5" t="n">
+        <v>73.92086915272914</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>70.51703238606855</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>70.95738649862363</v>
+      </c>
+      <c r="C6" t="n">
+        <v>66.9753935891919</v>
+      </c>
+      <c r="D6" t="n">
+        <v>73.96518293014284</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -965,7 +985,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>59.89965055509169</v>
+        <v>59.83084345383639</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -975,7 +995,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>60.50606220347918</v>
+        <v>60.80352130546768</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -985,7 +1005,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>61.81918237142892</v>
+        <v>61.32298561672</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -995,7 +1015,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>60.6931525566241</v>
+        <v>61.74091022195107</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1005,7 +1025,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>60.03225466326707</v>
+        <v>61.58101843941765</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -1015,7 +1035,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>63.14080288183875</v>
+        <v>60.9528600460836</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1025,7 +1045,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>62.61728866032323</v>
+        <v>62.36445493373539</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1035,7 +1055,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>62.85623332857661</v>
+        <v>62.75375614575614</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1045,7 +1065,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>61.54086573102785</v>
+        <v>63.01480452248596</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1055,7 +1075,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>62.33491277718424</v>
+        <v>62.51525204775039</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1065,7 +1085,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>64.18261285275129</v>
+        <v>62.38052949377541</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1075,7 +1095,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>62.81721558182291</v>
+        <v>63.53606681361451</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1085,7 +1105,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>62.46169933655361</v>
+        <v>62.97898653553618</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1095,7 +1115,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>62.00753448369179</v>
+        <v>62.70547259747696</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1105,7 +1125,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>61.83283965051876</v>
+        <v>62.46815205773659</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1115,7 +1135,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>61.61832443780616</v>
+        <v>62.12352290275751</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1125,7 +1145,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>62.07853748641156</v>
+        <v>61.69663701117167</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1135,7 +1155,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>62.62999077115974</v>
+        <v>61.67773548984245</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1145,7 +1165,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>62.7222601305176</v>
+        <v>62.35135762685869</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1155,7 +1175,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>63.06928086699373</v>
+        <v>62.34274903637697</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1165,7 +1185,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>60.66451974372163</v>
+        <v>62.92782302172634</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1175,7 +1195,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>63.59363423451197</v>
+        <v>61.7461853580761</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1185,7 +1205,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>63.97695568024015</v>
+        <v>62.73625758088252</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1195,7 +1215,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>64.34872520763541</v>
+        <v>63.57815287301862</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1205,7 +1225,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>63.07257512870758</v>
+        <v>63.95871905361466</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1215,7 +1235,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>64.07318437592549</v>
+        <v>64.03026726807381</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1225,7 +1245,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>64.87685404905513</v>
+        <v>63.95747959788953</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1235,7 +1255,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>66.04014850149031</v>
+        <v>64.5100607466251</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1245,7 +1265,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>68.34796175535224</v>
+        <v>65.6230487431514</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1255,7 +1275,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>68.00606952330871</v>
+        <v>67.22125596415157</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1265,7 +1285,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>67.84351708253806</v>
+        <v>68.1829645591083</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1275,7 +1295,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>69.02312362626182</v>
+        <v>68.75756424957019</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1285,7 +1305,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>69.20862704581847</v>
+        <v>69.20693210445401</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -1295,7 +1315,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>70.76230615872412</v>
+        <v>69.74192405445157</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -1305,7 +1325,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>70.34532579316748</v>
+        <v>70.52505678169803</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1315,7 +1335,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>69.950933310914</v>
+        <v>70.46414996600191</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1325,7 +1345,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>70.66365925256602</v>
+        <v>70.48461041849062</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1335,7 +1355,7 @@
         <v>2017</v>
       </c>
       <c r="B39" t="n">
-        <v>70.34711025610673</v>
+        <v>70.96508293365051</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -1345,7 +1365,7 @@
         <v>2018</v>
       </c>
       <c r="B40" t="n">
-        <v>69.3553782524158</v>
+        <v>70.84999338557515</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1355,7 +1375,7 @@
         <v>2019</v>
       </c>
       <c r="B41" t="n">
-        <v>70.79420381754008</v>
+        <v>70.01762921915505</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -1365,7 +1385,7 @@
         <v>2020</v>
       </c>
       <c r="B42" t="n">
-        <v>71.66443327187299</v>
+        <v>70.3942875333577</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
@@ -1375,7 +1395,7 @@
         <v>2021</v>
       </c>
       <c r="B43" t="n">
-        <v>69.44880106361298</v>
+        <v>71.05488781909924</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
@@ -1426,50 +1446,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>69.9887079767682</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>70.19994270166526</v>
+      </c>
+      <c r="C2" t="n">
+        <v>68.36491721722109</v>
+      </c>
+      <c r="D2" t="n">
+        <v>72.2018788445836</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>69.9887079767682</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>70.39736465684018</v>
+      </c>
+      <c r="C3" t="n">
+        <v>67.76367851464664</v>
+      </c>
+      <c r="D3" t="n">
+        <v>72.24267952634301</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>69.9887079767682</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>70.03943553134829</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67.76228322586823</v>
+      </c>
+      <c r="D4" t="n">
+        <v>72.86419750034064</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>69.9887079767682</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>70.28584007760594</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67.18230594793424</v>
+      </c>
+      <c r="D5" t="n">
+        <v>73.21459524422519</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>69.9887079767682</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>69.99057900593347</v>
+      </c>
+      <c r="C6" t="n">
+        <v>66.57571026285278</v>
+      </c>
+      <c r="D6" t="n">
+        <v>73.59357393604233</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
